--- a/ocms/src/test/resources/DownloadedFiles/Operating Hours.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Operating Hours.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
   <si>
     <t xml:space="preserve">Skill/VDN</t>
   </si>
@@ -172,13 +172,16 @@
     <t xml:space="preserve">00:06:03</t>
   </si>
   <si>
-    <t xml:space="preserve">30/07/2021 12:24:44</t>
+    <t xml:space="preserve">qatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 20:44:06</t>
   </si>
   <si>
     <t xml:space="preserve">13728</t>
   </si>
   <si>
-    <t xml:space="preserve">30/07/2021 12:20:42</t>
+    <t xml:space="preserve">10/08/2021 20:40:44</t>
   </si>
 </sst>
 </file>
@@ -694,18 +697,18 @@
         <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -717,18 +720,18 @@
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -740,18 +743,18 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -763,18 +766,18 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -786,18 +789,18 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -809,18 +812,18 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -832,18 +835,18 @@
         <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -855,10 +858,10 @@
         <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
